--- a/DATOS/PRECIOS ALQUILER/Precio_alquiler_estatal_desencadenado.xlsx
+++ b/DATOS/PRECIOS ALQUILER/Precio_alquiler_estatal_desencadenado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorie\Desktop\TRABAJO\PROPIO\Investigación sobre precariedad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorie\Desktop\TRABAJO\CGT\Análisis de coyuntura económica\IPC\Nuevo calculo de IPC alternativo para inquilinos\reponderacionIPC_2\DATOS\PRECIOS ALQUILER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
   <si>
     <t>Precio_m2</t>
   </si>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,8 +1766,89 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>2025</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>14.5</v>
+      </c>
+      <c r="E82">
+        <v>107.40740740740742</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>2025</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>14.5</v>
+      </c>
+      <c r="E83">
+        <v>107.40740740740742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>2025</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>14.5</v>
+      </c>
+      <c r="E84">
+        <v>107.40740740740742</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>2025</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>14.6</v>
+      </c>
+      <c r="E85">
+        <v>108.14814814814815</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>2025</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>14.7</v>
+      </c>
+      <c r="E86">
+        <v>108.88888888888889</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
